--- a/biology/Zoologie/Amnirana/Amnirana.xlsx
+++ b/biology/Zoologie/Amnirana/Amnirana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amnirana est un genre d'amphibiens de la famille des Ranidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amnirana est un genre d'amphibiens de la famille des Ranidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les douze espèces de ce genre se rencontrent en Afrique subsaharienne et en Asie du Sud-Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les douze espèces de ce genre se rencontrent en Afrique subsaharienne et en Asie du Sud-Est.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (3 juillet 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (3 juillet 2015) :
 Amnirana albolabris (Hallowell, 1856)
 Amnirana amnicola (Perret, 1977)
 Amnirana asperrima (Perret, 1977)
@@ -584,9 +600,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été relevé de sa synonymie avec Hylarana par Oliver, Prendini, Kraus et Raxworthy en 2015[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été relevé de sa synonymie avec Hylarana par Oliver, Prendini, Kraus et Raxworthy en 2015.
 </t>
         </is>
       </c>
@@ -615,7 +633,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dubois, 1992 : Notes sur la classification des Ranidae (Amphibiens anoures). Bulletin Mensuel de la Société Linnéenne de Lyon, vol. 61, p. 305-352.</t>
         </is>
